--- a/static/fields/deviceudi_reference.xlsx
+++ b/static/fields/deviceudi_reference.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19330"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F77005D-4821-4AE4-A6AB-5988924918E4}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="0" windowWidth="32820" windowHeight="18080" tabRatio="500"/>
+    <workbookView xWindow="1003" yWindow="0" windowWidth="23455" windowHeight="12485" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="device_udi_fields" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140000"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="146">
   <si>
     <t>Field Name</t>
   </si>
@@ -520,11 +526,68 @@
     <t>The version or model found on the device label or accompanying packaging used to identify a category or design of a device. The version or model identifies all devices that have specifications, performance, size, and composition within limits set by the labeler.
 This is an .exact field. It has been indexed both as its exact string content, and also tokenized.</t>
   </si>
+  <si>
+    <t>Auto assigned the day file is generated with Time Stamp; All existing records will have first date assigned the day download file is generated with this data element.</t>
+  </si>
+  <si>
+    <t>public_version_date</t>
+  </si>
+  <si>
+    <t>public_version_number</t>
+  </si>
+  <si>
+    <t>Auto assigned version number, assigned just before file generation; All existing records will have version 1 assigned.</t>
+  </si>
+  <si>
+    <t>public_version_status</t>
+  </si>
+  <si>
+    <t>Definition forthcoming.</t>
+  </si>
+  <si>
+    <t>record_key</t>
+  </si>
+  <si>
+    <t>Current enhancements will allow the Primary DI to change after the DI record has been released to the public. To ensure records can be linked and managed, a record key will be provided; Unique alphanumeric value, auto generated.</t>
+  </si>
+  <si>
+    <t>labeler_duns_number</t>
+  </si>
+  <si>
+    <t>The DUNS Number is a unique nine-digit identifier for businesses. It is used to establish a D&amp;B® business credit file, which is often referenced by lenders and potential business partners to help predict the reliability and/or financial stability of the company in question.</t>
+  </si>
+  <si>
+    <t>Premarket Submissions</t>
+  </si>
+  <si>
+    <t>premarket_submissions.submission_number</t>
+  </si>
+  <si>
+    <t>Number associated with the regulatory decision regarding the applicant’s legal right to market a medical device for the following submission types: 510(k), PMA, PDP, HDE, BLA, and NDA.</t>
+  </si>
+  <si>
+    <t>premarket_submissions.supplement_number</t>
+  </si>
+  <si>
+    <t>Number assigned by FDA to a supplemental application for approval of a change in a medical device with an approved PMA.</t>
+  </si>
+  <si>
+    <t>premarket_submissions.submission_type</t>
+  </si>
+  <si>
+    <t>Indicates the premarket submission type. Value is one of the following
+510(k) = 510(k)
+PMA = PMA
+PDP = PDP
+HDE = HDE
+BLA = BLA
+NDA = NDA</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1179,6 +1242,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1503,26 +1574,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D59"/>
+  <dimension ref="A1:D71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.8125" defaultRowHeight="15.85" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="27.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="79.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="79.1875" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="118.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="3"/>
+    <col min="4" max="4" width="118.1875" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.8125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -1536,7 +1607,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="75">
+    <row r="2" spans="1:4" ht="79.2" x14ac:dyDescent="0.5">
       <c r="A2" s="9"/>
       <c r="B2" s="10" t="s">
         <v>66</v>
@@ -1548,7 +1619,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="45">
+    <row r="3" spans="1:4" ht="47.5" x14ac:dyDescent="0.5">
       <c r="A3" s="9"/>
       <c r="B3" s="10" t="s">
         <v>67</v>
@@ -1560,7 +1631,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="30">
+    <row r="4" spans="1:4" ht="31.7" x14ac:dyDescent="0.5">
       <c r="A4" s="9"/>
       <c r="B4" s="10" t="s">
         <v>68</v>
@@ -1572,7 +1643,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="105">
+    <row r="5" spans="1:4" ht="110.85" x14ac:dyDescent="0.5">
       <c r="A5" s="9"/>
       <c r="B5" s="10" t="s">
         <v>69</v>
@@ -1584,7 +1655,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="45">
+    <row r="6" spans="1:4" ht="47.5" x14ac:dyDescent="0.5">
       <c r="A6" s="9"/>
       <c r="B6" s="10" t="s">
         <v>70</v>
@@ -1596,7 +1667,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A7" s="9"/>
       <c r="B7" s="10" t="s">
         <v>71</v>
@@ -1608,7 +1679,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A8" s="9"/>
       <c r="B8" s="10" t="s">
         <v>72</v>
@@ -1620,7 +1691,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="120">
+    <row r="9" spans="1:4" ht="126.7" x14ac:dyDescent="0.5">
       <c r="A9" s="9"/>
       <c r="B9" s="10" t="s">
         <v>73</v>
@@ -1632,7 +1703,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="105">
+    <row r="10" spans="1:4" ht="110.85" x14ac:dyDescent="0.5">
       <c r="A10" s="9"/>
       <c r="B10" s="10" t="s">
         <v>74</v>
@@ -1644,7 +1715,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="120">
+    <row r="11" spans="1:4" ht="126.7" x14ac:dyDescent="0.5">
       <c r="A11" s="9"/>
       <c r="B11" s="10" t="s">
         <v>75</v>
@@ -1656,7 +1727,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="105">
+    <row r="12" spans="1:4" ht="110.85" x14ac:dyDescent="0.5">
       <c r="A12" s="9"/>
       <c r="B12" s="10" t="s">
         <v>76</v>
@@ -1668,7 +1739,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="105">
+    <row r="13" spans="1:4" ht="110.85" x14ac:dyDescent="0.5">
       <c r="A13" s="9"/>
       <c r="B13" s="10" t="s">
         <v>77</v>
@@ -1680,7 +1751,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="105">
+    <row r="14" spans="1:4" ht="110.85" x14ac:dyDescent="0.5">
       <c r="A14" s="9"/>
       <c r="B14" s="10" t="s">
         <v>78</v>
@@ -1692,7 +1763,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="75">
+    <row r="15" spans="1:4" ht="79.2" x14ac:dyDescent="0.5">
       <c r="A15" s="9"/>
       <c r="B15" s="10" t="s">
         <v>79</v>
@@ -1704,7 +1775,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="90">
+    <row r="16" spans="1:4" ht="95" x14ac:dyDescent="0.5">
       <c r="A16" s="9"/>
       <c r="B16" s="10" t="s">
         <v>80</v>
@@ -1716,7 +1787,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="90">
+    <row r="17" spans="1:4" ht="95" x14ac:dyDescent="0.5">
       <c r="A17" s="9"/>
       <c r="B17" s="10" t="s">
         <v>81</v>
@@ -1728,7 +1799,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="105">
+    <row r="18" spans="1:4" ht="110.85" x14ac:dyDescent="0.5">
       <c r="A18" s="9"/>
       <c r="B18" s="10" t="s">
         <v>82</v>
@@ -1740,7 +1811,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="120">
+    <row r="19" spans="1:4" ht="126.7" x14ac:dyDescent="0.5">
       <c r="A19" s="9"/>
       <c r="B19" s="10" t="s">
         <v>83</v>
@@ -1752,7 +1823,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="75">
+    <row r="20" spans="1:4" ht="79.2" x14ac:dyDescent="0.5">
       <c r="A20" s="9"/>
       <c r="B20" s="10" t="s">
         <v>84</v>
@@ -1764,7 +1835,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="75">
+    <row r="21" spans="1:4" ht="79.2" x14ac:dyDescent="0.5">
       <c r="A21" s="9"/>
       <c r="B21" s="10" t="s">
         <v>85</v>
@@ -1776,7 +1847,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="75">
+    <row r="22" spans="1:4" ht="79.2" x14ac:dyDescent="0.5">
       <c r="A22" s="9"/>
       <c r="B22" s="10" t="s">
         <v>86</v>
@@ -1788,7 +1859,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="75">
+    <row r="23" spans="1:4" ht="79.2" x14ac:dyDescent="0.5">
       <c r="A23" s="9"/>
       <c r="B23" s="10" t="s">
         <v>87</v>
@@ -1800,496 +1871,622 @@
         <v>119</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="150">
+    <row r="24" spans="1:4" ht="31.7" x14ac:dyDescent="0.5">
       <c r="A24" s="9"/>
       <c r="B24" s="10" t="s">
-        <v>88</v>
+        <v>137</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>3</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="158.35" x14ac:dyDescent="0.5">
       <c r="A25" s="9"/>
       <c r="B25" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="90">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="31.7" x14ac:dyDescent="0.5">
       <c r="A26" s="9"/>
       <c r="B26" s="10" t="s">
-        <v>91</v>
+        <v>130</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="75">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A27" s="9"/>
-      <c r="B27" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="75">
+      <c r="B27" s="10"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="11"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A28" s="9"/>
       <c r="B28" s="10" t="s">
-        <v>93</v>
+        <v>131</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>89</v>
+        <v>3</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="285">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A29" s="9"/>
-      <c r="B29" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="45">
+      <c r="B29" s="10"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="11"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A30" s="9"/>
       <c r="B30" s="10" t="s">
-        <v>95</v>
+        <v>133</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>3</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A31" s="9"/>
-      <c r="B31" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="60">
+      <c r="B31" s="10"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="11"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A32" s="9"/>
       <c r="B32" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A33" s="9"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="11"/>
+    </row>
+    <row r="34" spans="1:4" ht="43.75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A34" s="9"/>
+      <c r="B34" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="95" x14ac:dyDescent="0.5">
+      <c r="A35" s="9"/>
+      <c r="B35" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="79.2" x14ac:dyDescent="0.5">
+      <c r="A36" s="9"/>
+      <c r="B36" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="79.2" x14ac:dyDescent="0.5">
+      <c r="A37" s="9"/>
+      <c r="B37" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="300.85000000000002" x14ac:dyDescent="0.5">
+      <c r="A38" s="9"/>
+      <c r="B38" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="47.5" x14ac:dyDescent="0.5">
+      <c r="A39" s="9"/>
+      <c r="B39" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A40" s="9"/>
+      <c r="B40" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="63.35" x14ac:dyDescent="0.5">
+      <c r="A41" s="9"/>
+      <c r="B41" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="C32" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D32" s="11" t="s">
+      <c r="C41" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D41" s="11" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="75">
-      <c r="A33" s="3" t="s">
+    <row r="42" spans="1:4" ht="79.2" x14ac:dyDescent="0.5">
+      <c r="A42" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B42" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D33" s="5" t="s">
+      <c r="C42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D42" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="75">
-      <c r="A34" s="3" t="s">
+    <row r="43" spans="1:4" ht="79.2" x14ac:dyDescent="0.5">
+      <c r="A43" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B43" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D34" s="5" t="s">
+      <c r="C43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D43" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="3" t="s">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A44" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B44" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C44" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D44" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="3" t="s">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A45" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B45" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D36" s="5" t="s">
+      <c r="C45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D45" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="3" t="s">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A46" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B46" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C37" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D37" s="5" t="s">
+      <c r="C46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D46" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="45">
-      <c r="A38" s="3" t="s">
+    <row r="47" spans="1:4" ht="47.5" x14ac:dyDescent="0.5">
+      <c r="A47" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B47" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C47" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="D47" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="3" t="s">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A48" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B48" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C39" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D39" s="5" t="s">
+      <c r="C48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D48" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="45">
-      <c r="A40" s="3" t="s">
+    <row r="49" spans="1:4" ht="47.5" x14ac:dyDescent="0.5">
+      <c r="A49" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B49" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C40" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D40" s="5" t="s">
+      <c r="C49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D49" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="45">
-      <c r="A41" s="3" t="s">
+    <row r="50" spans="1:4" ht="47.5" x14ac:dyDescent="0.5">
+      <c r="A50" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B50" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D41" s="5" t="s">
+      <c r="C50" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D50" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="45">
-      <c r="A42" s="3" t="s">
+    <row r="51" spans="1:4" ht="47.5" x14ac:dyDescent="0.5">
+      <c r="A51" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B51" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D42" s="5" t="s">
+      <c r="C51" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D51" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="45">
-      <c r="A43" s="3" t="s">
+    <row r="52" spans="1:4" ht="47.5" x14ac:dyDescent="0.5">
+      <c r="A52" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B52" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D43" s="5" t="s">
+      <c r="C52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D52" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="3" t="s">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A53" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B53" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D44" s="5" t="s">
+      <c r="C53" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D53" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="3" t="s">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A54" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B54" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D45" s="5" t="s">
+      <c r="C54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D54" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="3" t="s">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A55" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B55" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D46" s="5" t="s">
+      <c r="C55" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D55" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="45">
-      <c r="A47" s="3" t="s">
+    <row r="56" spans="1:4" ht="47.5" x14ac:dyDescent="0.5">
+      <c r="A56" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B56" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D47" s="5" t="s">
+      <c r="C56" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D56" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="45">
-      <c r="A48" s="3" t="s">
+    <row r="57" spans="1:4" ht="47.5" x14ac:dyDescent="0.5">
+      <c r="A57" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B57" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D48" s="5" t="s">
+      <c r="C57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D57" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="45">
-      <c r="A49" s="3" t="s">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A58" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A59" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="119.9" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A60" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="47.5" x14ac:dyDescent="0.5">
+      <c r="A61" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B61" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D49" s="5" t="s">
+      <c r="C61" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D61" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="45">
-      <c r="A50" s="3" t="s">
+    <row r="62" spans="1:4" ht="47.5" x14ac:dyDescent="0.5">
+      <c r="A62" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B62" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C50" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D50" s="5" t="s">
+      <c r="C62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D62" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="45">
-      <c r="A51" s="3" t="s">
+    <row r="63" spans="1:4" ht="47.5" x14ac:dyDescent="0.5">
+      <c r="A63" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="B63" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C51" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D51" s="5" t="s">
+      <c r="C63" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D63" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="45">
-      <c r="A52" s="3" t="s">
+    <row r="64" spans="1:4" ht="47.5" x14ac:dyDescent="0.5">
+      <c r="A64" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B64" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D52" s="5" t="s">
+      <c r="C64" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D64" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="3" t="s">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A65" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B65" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C53" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D53" s="5" t="s">
+      <c r="C65" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D65" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="3" t="s">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A66" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B66" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D54" s="5" t="s">
+      <c r="C66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D66" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="135">
-      <c r="A55" s="3" t="s">
+    <row r="67" spans="1:4" ht="142.5" x14ac:dyDescent="0.5">
+      <c r="A67" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B67" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C55" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D55" s="5" t="s">
+      <c r="C67" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D67" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="45">
-      <c r="A56" s="3" t="s">
+    <row r="68" spans="1:4" ht="47.5" x14ac:dyDescent="0.5">
+      <c r="A68" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B68" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C56" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D56" s="5" t="s">
+      <c r="C68" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D68" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="3" t="s">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A69" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B69" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="C69" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D57" s="5" t="s">
+      <c r="D69" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="60">
-      <c r="A58" s="3" t="s">
+    <row r="70" spans="1:4" ht="63.35" x14ac:dyDescent="0.5">
+      <c r="A70" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B70" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D58" s="5" t="s">
+      <c r="C70" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D70" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="45">
-      <c r="A59" s="3" t="s">
+    <row r="71" spans="1:4" ht="47.5" x14ac:dyDescent="0.5">
+      <c r="A71" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="B71" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="C71" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D59" s="5" t="s">
+      <c r="D71" s="5" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup scale="21" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup scale="16" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="100"/>
